--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-observation-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="609">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T22:57:55+00:00</t>
+    <t>2022-09-09T22:32:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -297,7 +297,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -517,6 +517,10 @@
   </si>
   <si>
     <t>Observation.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3703,13 +3707,13 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3760,7 +3764,7 @@
         <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3784,7 +3788,7 @@
         <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3795,7 +3799,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3824,7 +3828,7 @@
         <v>138</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>140</v>
@@ -3865,19 +3869,19 @@
         <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3901,7 +3905,7 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3912,7 +3916,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3938,16 +3942,16 @@
         <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>81</v>
@@ -3972,13 +3976,13 @@
         <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>81</v>
@@ -3996,7 +4000,7 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -4020,7 +4024,7 @@
         <v>134</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -4031,7 +4035,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -4054,19 +4058,19 @@
         <v>92</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>81</v>
@@ -4091,13 +4095,13 @@
         <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>81</v>
@@ -4115,7 +4119,7 @@
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -4136,10 +4140,10 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -4150,7 +4154,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4176,16 +4180,16 @@
         <v>105</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
@@ -4198,7 +4202,7 @@
         <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>81</v>
@@ -4234,7 +4238,7 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -4255,10 +4259,10 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -4269,7 +4273,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4292,16 +4296,16 @@
         <v>92</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4315,7 +4319,7 @@
         <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>81</v>
@@ -4351,7 +4355,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -4372,10 +4376,10 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -4386,7 +4390,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4409,13 +4413,13 @@
         <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4466,7 +4470,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -4487,10 +4491,10 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4501,7 +4505,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4524,16 +4528,16 @@
         <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4583,7 +4587,7 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4604,10 +4608,10 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4618,11 +4622,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4641,19 +4645,19 @@
         <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4702,7 +4706,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4717,16 +4721,16 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4737,11 +4741,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4760,16 +4764,16 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4819,7 +4823,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4834,16 +4838,16 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4854,7 +4858,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4880,16 +4884,16 @@
         <v>111</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>81</v>
@@ -4914,13 +4918,13 @@
         <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>81</v>
@@ -4938,7 +4942,7 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>91</v>
@@ -4953,19 +4957,19 @@
         <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4973,7 +4977,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4996,19 +5000,19 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -5036,26 +5040,26 @@
         <v>115</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -5079,10 +5083,10 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -5090,7 +5094,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5113,13 +5117,13 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5170,7 +5174,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -5194,7 +5198,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -5205,7 +5209,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5234,7 +5238,7 @@
         <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>140</v>
@@ -5275,19 +5279,19 @@
         <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -5311,7 +5315,7 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -5322,7 +5326,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5345,19 +5349,19 @@
         <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -5406,7 +5410,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5427,10 +5431,10 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5441,7 +5445,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5464,19 +5468,19 @@
         <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
@@ -5525,7 +5529,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5546,10 +5550,10 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5560,10 +5564,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>81</v>
@@ -5585,19 +5589,19 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
@@ -5607,7 +5611,7 @@
         <v>81</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>81</v>
@@ -5625,10 +5629,10 @@
         <v>115</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5646,7 +5650,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5670,10 +5674,10 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5681,11 +5685,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5704,19 +5708,19 @@
         <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5744,10 +5748,10 @@
         <v>115</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5765,7 +5769,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>91</v>
@@ -5780,27 +5784,27 @@
         <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5823,13 +5827,13 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5880,7 +5884,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5904,7 +5908,7 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5915,7 +5919,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5944,7 +5948,7 @@
         <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>140</v>
@@ -5985,19 +5989,19 @@
         <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -6021,7 +6025,7 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -6032,7 +6036,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6055,19 +6059,19 @@
         <v>92</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -6116,7 +6120,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -6137,10 +6141,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6151,7 +6155,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6174,13 +6178,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6231,7 +6235,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -6255,7 +6259,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6266,7 +6270,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6295,7 +6299,7 @@
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
@@ -6336,19 +6340,19 @@
         <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -6372,7 +6376,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6383,7 +6387,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6409,16 +6413,16 @@
         <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -6467,7 +6471,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6488,10 +6492,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6502,7 +6506,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6525,16 +6529,16 @@
         <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6584,7 +6588,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6605,10 +6609,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6619,7 +6623,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6645,16 +6649,16 @@
         <v>111</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6703,7 +6707,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6724,10 +6728,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6738,7 +6742,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6761,19 +6765,19 @@
         <v>92</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6822,7 +6826,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6843,10 +6847,10 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6857,7 +6861,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6880,19 +6884,19 @@
         <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6941,7 +6945,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6962,10 +6966,10 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6976,7 +6980,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6999,19 +7003,19 @@
         <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -7060,7 +7064,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -7081,10 +7085,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7095,7 +7099,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7118,19 +7122,19 @@
         <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -7179,7 +7183,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -7194,19 +7198,19 @@
         <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -7214,7 +7218,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7237,16 +7241,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7296,7 +7300,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -7317,13 +7321,13 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7331,11 +7335,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7354,19 +7358,19 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -7415,7 +7419,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -7430,19 +7434,19 @@
         <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7450,11 +7454,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7473,19 +7477,19 @@
         <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -7534,7 +7538,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7549,19 +7553,19 @@
         <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7569,7 +7573,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7592,16 +7596,16 @@
         <v>92</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7651,7 +7655,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7672,13 +7676,13 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7686,7 +7690,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7709,19 +7713,19 @@
         <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -7770,7 +7774,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7785,19 +7789,19 @@
         <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7805,7 +7809,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7828,19 +7832,19 @@
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7889,7 +7893,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7898,7 +7902,7 @@
         <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>103</v>
@@ -7907,24 +7911,24 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7947,19 +7951,19 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7984,13 +7988,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -8008,7 +8012,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -8017,7 +8021,7 @@
         <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>103</v>
@@ -8032,7 +8036,7 @@
         <v>134</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -8043,11 +8047,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -8066,19 +8070,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -8103,13 +8107,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -8127,7 +8131,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -8145,24 +8149,24 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8185,19 +8189,19 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -8246,7 +8250,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -8267,10 +8271,10 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8281,7 +8285,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8304,13 +8308,13 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8361,7 +8365,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -8385,7 +8389,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8396,7 +8400,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8425,7 +8429,7 @@
         <v>138</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>140</v>
@@ -8466,19 +8470,19 @@
         <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8502,7 +8506,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8513,7 +8517,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8536,16 +8540,16 @@
         <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8595,7 +8599,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8619,7 +8623,7 @@
         <v>134</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8630,7 +8634,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8653,13 +8657,13 @@
         <v>92</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8710,7 +8714,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8734,7 +8738,7 @@
         <v>134</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8745,7 +8749,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8768,16 +8772,16 @@
         <v>92</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8827,7 +8831,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>91</v>
@@ -8851,7 +8855,7 @@
         <v>134</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8862,7 +8866,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8885,16 +8889,16 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8920,11 +8924,11 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8942,7 +8946,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8960,24 +8964,24 @@
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9000,19 +9004,19 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
@@ -9037,11 +9041,11 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -9059,7 +9063,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -9080,10 +9084,10 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9094,7 +9098,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9117,16 +9121,16 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9176,7 +9180,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -9194,24 +9198,24 @@
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9234,16 +9238,16 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9293,7 +9297,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -9311,24 +9315,24 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9351,19 +9355,19 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>81</v>
@@ -9412,7 +9416,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9424,7 +9428,7 @@
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9433,10 +9437,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9447,7 +9451,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9470,13 +9474,13 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9527,7 +9531,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9551,7 +9555,7 @@
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9562,7 +9566,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9591,7 +9595,7 @@
         <v>138</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>140</v>
@@ -9644,7 +9648,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9668,7 +9672,7 @@
         <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9679,11 +9683,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9705,10 +9709,10 @@
         <v>137</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>140</v>
@@ -9763,7 +9767,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9798,7 +9802,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9821,16 +9825,16 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9880,7 +9884,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9889,7 +9893,7 @@
         <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>103</v>
@@ -9901,10 +9905,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9915,7 +9919,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9938,16 +9942,16 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9997,7 +10001,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -10006,7 +10010,7 @@
         <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>103</v>
@@ -10018,10 +10022,10 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -10032,7 +10036,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10055,19 +10059,19 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -10095,10 +10099,10 @@
         <v>115</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>81</v>
@@ -10116,7 +10120,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -10134,13 +10138,13 @@
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -10151,7 +10155,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10174,19 +10178,19 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -10211,13 +10215,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -10235,7 +10239,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -10253,13 +10257,13 @@
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10270,7 +10274,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10293,19 +10297,19 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -10354,7 +10358,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10378,7 +10382,7 @@
         <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10389,7 +10393,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10412,16 +10416,16 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10471,7 +10475,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10492,10 +10496,10 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10506,7 +10510,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10529,16 +10533,16 @@
         <v>92</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10588,7 +10592,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10609,10 +10613,10 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10623,7 +10627,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10646,16 +10650,16 @@
         <v>92</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10705,7 +10709,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10726,10 +10730,10 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10740,7 +10744,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10763,19 +10767,19 @@
         <v>92</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>81</v>
@@ -10824,7 +10828,7 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10845,10 +10849,10 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10859,7 +10863,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10882,13 +10886,13 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10939,7 +10943,7 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10963,7 +10967,7 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10974,7 +10978,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11003,7 +11007,7 @@
         <v>138</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>140</v>
@@ -11056,7 +11060,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -11080,7 +11084,7 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11091,11 +11095,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -11117,10 +11121,10 @@
         <v>137</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>140</v>
@@ -11175,7 +11179,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -11210,7 +11214,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11233,19 +11237,19 @@
         <v>92</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>81</v>
@@ -11270,13 +11274,13 @@
         <v>81</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>81</v>
@@ -11294,7 +11298,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>91</v>
@@ -11312,16 +11316,16 @@
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -11329,7 +11333,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11352,19 +11356,19 @@
         <v>92</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>81</v>
@@ -11413,7 +11417,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -11431,24 +11435,24 @@
         <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11471,19 +11475,19 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>81</v>
@@ -11508,13 +11512,13 @@
         <v>81</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>81</v>
@@ -11532,7 +11536,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -11541,7 +11545,7 @@
         <v>91</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>103</v>
@@ -11556,7 +11560,7 @@
         <v>134</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11567,11 +11571,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11590,19 +11594,19 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11627,13 +11631,13 @@
         <v>81</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>81</v>
@@ -11651,7 +11655,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11669,24 +11673,24 @@
         <v>81</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11712,16 +11716,16 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>81</v>
@@ -11770,7 +11774,7 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
@@ -11791,10 +11795,10 @@
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
